--- a/src/attributions/attributions_ig_traj_331.xlsx
+++ b/src/attributions/attributions_ig_traj_331.xlsx
@@ -1004,10 +1004,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1166,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO2" t="n">
         <v>0</v>
@@ -1328,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG2" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY2" t="n">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
@@ -1436,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ2" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
@@ -1517,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR2" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.10182580059456</v>
+        <v>-0.03251932444394178</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.3438926662425554</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03894692719394247</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01488433763763836</v>
+        <v>-0.03496782482494351</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1597,52 +1597,52 @@
         <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1050672242093431</v>
+        <v>-0.06495335735067174</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0.3171791814450751</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05411896973975939</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.03133333562262728</v>
+        <v>-0.07138920335935367</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.001610000040872946</v>
+        <v>0.04730531920587148</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.2832908335249125</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.1068479950684303</v>
+        <v>-0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.07491515978012371</v>
+        <v>0.3258450493238491</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>-0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.05560319122219385</v>
+        <v>0.1465891513053214</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0</v>
+        <v>0.1852710821792396</v>
       </c>
       <c r="AD3" t="n">
         <v>-0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1563349254571993</v>
+        <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.09206976934471438</v>
+        <v>-0.2423370592677605</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -1681,25 +1681,25 @@
         <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1102762432038149</v>
+        <v>-0.09988119128640083</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.1605443036792489</v>
       </c>
       <c r="AM3" t="n">
         <v>-0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.03496384255729996</v>
+        <v>-0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.007571819990102162</v>
+        <v>0.132943501550913</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1708,103 +1708,103 @@
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.1746044703914849</v>
+        <v>0.07823862876536349</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0</v>
+        <v>0.6969619958214756</v>
       </c>
       <c r="AV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.007514892035826232</v>
+        <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.01176290951044763</v>
+        <v>0.4879599551311475</v>
       </c>
       <c r="AY3" t="n">
         <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.04990825600448329</v>
+        <v>-0.01531895131688642</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>0.01450773360866885</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.02388537153666637</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.01219827384370711</v>
+        <v>-0.1974355363456081</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
         <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.03354095757133063</v>
+        <v>0.01682815961057959</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0.1479255158465394</v>
       </c>
       <c r="BN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0.068964883392612</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.02557042013785734</v>
+        <v>0.1746805573615625</v>
       </c>
       <c r="BQ3" t="n">
         <v>-0</v>
       </c>
       <c r="BR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
         <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.1646153976399641</v>
+        <v>0.07158859353022071</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>0.3732576566925022</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0.01212909611440289</v>
+        <v>-0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.002428283443518406</v>
+        <v>0.2121322970386049</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -1813,52 +1813,52 @@
         <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0.06620171595265888</v>
+        <v>0.0001670831278045757</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.2055786465459877</v>
       </c>
       <c r="CF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.006755179410461526</v>
+        <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.03030014087193426</v>
+        <v>-0.01676342481433708</v>
       </c>
       <c r="CI3" t="n">
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.03300242202287542</v>
+        <v>-0.0857737231637927</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>-0.01628502770677764</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0.01723092864973908</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.02799486405821222</v>
+        <v>-0.1137766615583274</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
         <v>-0</v>
@@ -1870,46 +1870,46 @@
         <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0.06096885407755027</v>
+        <v>-0.009016019336861773</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.2129803787612637</v>
       </c>
       <c r="CX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.004651306135762978</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.04963757619725019</v>
+        <v>-0.01848126470576252</v>
       </c>
       <c r="DA3" t="n">
         <v>-0</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
         <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0.009033744281644948</v>
+        <v>-0.0204573734371791</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0.1680131783848771</v>
       </c>
       <c r="DG3" t="n">
         <v>-0</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.02982696128576327</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.03492692093278313</v>
+        <v>0.02478030695359772</v>
       </c>
       <c r="DJ3" t="n">
         <v>-0</v>
@@ -1918,52 +1918,52 @@
         <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.01810376326098632</v>
+        <v>0.04294086420556908</v>
       </c>
       <c r="DO3" t="n">
-        <v>-0</v>
+        <v>-0.08687681041264883</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0.0298451371738449</v>
+        <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.03958836176349826</v>
+        <v>-0.1573622307977608</v>
       </c>
       <c r="DS3" t="n">
         <v>-0</v>
       </c>
       <c r="DT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0.004570754119136263</v>
+        <v>-0.02018107324320145</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0.3034953611696145</v>
       </c>
       <c r="DY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-0.03925518385996357</v>
+        <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.01503970587168087</v>
+        <v>-0.04781332367274259</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
@@ -1975,28 +1975,28 @@
         <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0.1381747807112756</v>
+        <v>-0.03624045786711472</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.07674780666979186</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.04462893602618274</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.001778689806189025</v>
+        <v>0.1086994090259837</v>
       </c>
       <c r="EK3" t="n">
         <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
         <v>0</v>
@@ -2005,73 +2005,73 @@
         <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0.03120135196819141</v>
+        <v>-0.009429540513998703</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0.23158298179307</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0.05191214179498124</v>
+        <v>-0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.02193043142907163</v>
+        <v>-0.05466045068413791</v>
       </c>
       <c r="ET3" t="n">
         <v>-0</v>
       </c>
       <c r="EU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0.07074653086125442</v>
+        <v>-0.04791183586750479</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.2300495963749399</v>
       </c>
       <c r="EZ3" t="n">
         <v>-0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0.006528282718960957</v>
+        <v>-0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.03304147442761007</v>
+        <v>-0.03502101527797568</v>
       </c>
       <c r="FC3" t="n">
         <v>0</v>
       </c>
       <c r="FD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.0553081036315792</v>
+        <v>0.03523106563787719</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0.07355293290813626</v>
       </c>
       <c r="FI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.03660446234303115</v>
+        <v>-0</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.08826673742813455</v>
+        <v>-0.09722941492664995</v>
       </c>
       <c r="FL3" t="n">
         <v>0</v>
@@ -2083,69 +2083,69 @@
         <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.06927810440854408</v>
+        <v>-0.05704126934370282</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0.194486262969876</v>
       </c>
       <c r="FR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.0312053342824972</v>
+        <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.03363286718996657</v>
+        <v>-0.08514181213767234</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
         <v>-0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.06884308722850351</v>
+        <v>-0.1075233348076856</v>
       </c>
       <c r="FZ3" t="n">
-        <v>-0</v>
+        <v>-0.1377038547159989</v>
       </c>
       <c r="GA3" t="n">
         <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.05144425959183965</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -2196,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -2277,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
@@ -2331,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -2385,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
         <v>0</v>
@@ -2466,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY4" t="n">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
         <v>0</v>
@@ -2655,10 +2655,10 @@
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
@@ -2711,25 +2711,25 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1428218524284042</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.3775215384978758</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0.09460017079860968</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02090157937836537</v>
+        <v>0.01837624704309709</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02930692846941899</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>-0</v>
@@ -2738,52 +2738,52 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1285891784050336</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.2825335756898309</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-0.1548587573022387</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.06171604847877924</v>
+        <v>-0.03098169435210578</v>
       </c>
       <c r="O5" t="n">
         <v>-0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03022524115193826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.02037783272766321</v>
+        <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.1947311591083854</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>-0.0001594001238532104</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.04424917604150447</v>
+        <v>0.06245043481046523</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.05629546746509275</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -2792,25 +2792,25 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.06320439915676268</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.1431054779939783</v>
       </c>
       <c r="AD5" t="n">
         <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0</v>
+        <v>-0.04445321966006026</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.05872097711117171</v>
+        <v>-0.04329517923311742</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.06033083170170869</v>
+        <v>-0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -2819,25 +2819,25 @@
         <v>-0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.06634260597850891</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.03915034782149171</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0</v>
+        <v>-0.1121934358066897</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.03556993524129513</v>
+        <v>-0.0810768533837815</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.01803549275621995</v>
+        <v>-0</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2846,52 +2846,52 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.1858782685913705</v>
+        <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.5297729728225447</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0</v>
+        <v>-0.00143688470537283</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.04868832096915402</v>
+        <v>0.29844345712971</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.06347767283735689</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
         <v>-0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.04065529028284931</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.07117388511597909</v>
       </c>
       <c r="BE5" t="n">
         <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>-0.129409152007595</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.01514573700167918</v>
+        <v>-0.1491741968750437</v>
       </c>
       <c r="BH5" t="n">
         <v>-0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.02356091738033157</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
@@ -2900,79 +2900,79 @@
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.02007478462060533</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.06798933110311733</v>
       </c>
       <c r="BN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>1.995529886668329e-10</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.06825650967184162</v>
+        <v>0.2274912792919971</v>
       </c>
       <c r="BQ5" t="n">
         <v>-0</v>
       </c>
       <c r="BR5" t="n">
-        <v>-2.371532726853121e-12</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.1361772411193466</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.2734969097174096</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>-0</v>
+        <v>0.01544388392072348</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.05438644713671646</v>
+        <v>0.1136313833720909</v>
       </c>
       <c r="BZ5" t="n">
         <v>-0</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.03636751228096208</v>
+        <v>-0</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0.0745289053248769</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.164294848971003</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>0.01986372251663777</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.009515287486232057</v>
+        <v>-0.03736151745999557</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0.0242049997364859</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
         <v>0</v>
@@ -2981,52 +2981,52 @@
         <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0.01752353984230558</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>0.0120847443419968</v>
       </c>
       <c r="CO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0</v>
+        <v>-0.06176644243765889</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.08143159475738186</v>
+        <v>-0.08039940440160426</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.003551268045658882</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
         <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0.06695151267094183</v>
+        <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.1567389261857122</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0</v>
+        <v>0.05213467655827858</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.01658859299867048</v>
+        <v>-0.04607983627337604</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0.01658406814642692</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
         <v>-0</v>
@@ -3035,79 +3035,79 @@
         <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0.01561190231401732</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.1161508345784289</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>0.01943161839434206</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.06653259390628702</v>
+        <v>-0.07260902419309763</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.04061692007699275</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN5" t="n">
-        <v>-0.004509176005666556</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.03336469871341385</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0</v>
+        <v>-0.1356975904042493</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.04221979977174768</v>
+        <v>-0.04031294016564397</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0.009619558137273124</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
         <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>-0.001757351409585137</v>
+        <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.1049886800564138</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>-0.009020251031152933</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0237567664129906</v>
+        <v>0.04779938955680858</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.002909536971836939</v>
+        <v>0</v>
       </c>
       <c r="ED5" t="n">
         <v>-0</v>
@@ -3116,52 +3116,52 @@
         <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0.1106071901159223</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.1103098637287269</v>
       </c>
       <c r="EH5" t="n">
         <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0.03413677029259439</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.03551394560158634</v>
+        <v>0.04458421952900096</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0.06732940360677218</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0.04091076495513452</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.1538850148868556</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>-0.1296178548789068</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.05108647214097465</v>
+        <v>-0.1193402870555895</v>
       </c>
       <c r="ET5" t="n">
         <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>-0.001925332659677076</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
         <v>0</v>
@@ -3170,25 +3170,25 @@
         <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0.06500963923723492</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.1655838152099972</v>
       </c>
       <c r="EZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>0.01763855911975289</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.02426015218393924</v>
+        <v>-0.04257069629501704</v>
       </c>
       <c r="FC5" t="n">
         <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0.0210065707447973</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
         <v>0</v>
@@ -3197,52 +3197,52 @@
         <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>-0.04600064081896696</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.01747771349007303</v>
       </c>
       <c r="FI5" t="n">
         <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0</v>
+        <v>0.05667368469784145</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.08486498541843474</v>
+        <v>0.01198227001613248</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0.02081443507714784</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
         <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>-0.006710133448599736</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.004477539830241762</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0</v>
+        <v>0.06858401608841425</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.005534298961979098</v>
+        <v>0.0314837908503823</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.004054492824976773</v>
+        <v>-0</v>
       </c>
       <c r="FW5" t="n">
         <v>0</v>
@@ -3251,54 +3251,54 @@
         <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>-0.01374111207109934</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>-0</v>
+        <v>0.003587034543148954</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>-0.08710643806842586</v>
       </c>
       <c r="GC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.02971630377863274</v>
+        <v>-0</v>
       </c>
       <c r="GF5" t="n">
         <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.08755420664516565</v>
+        <v>-0.08549065093912959</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.2023429885183032</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0577026239175605</v>
+        <v>-0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04406543954024648</v>
+        <v>-0.02881761411873576</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H6" t="n">
         <v>-0</v>
@@ -3307,100 +3307,100 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06240027696559974</v>
+        <v>-0.07563821318162901</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0.1781208461486853</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.08260141363849924</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.005608989245683519</v>
+        <v>-0.07795694740588394</v>
       </c>
       <c r="O6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.02868660090323413</v>
+        <v>0.01249093933676193</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.2171923621267428</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.169918334709475</v>
+        <v>-0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.03560104654070582</v>
+        <v>0.139841902326209</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.04016475712047314</v>
+        <v>0.1198118050443587</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0</v>
+        <v>0.2032836191981855</v>
       </c>
       <c r="AD6" t="n">
         <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.08832206837564886</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.08067345639809838</v>
+        <v>0.003441171302531628</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.1185580788718846</v>
+        <v>-0.009472120773432685</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.1165043566741882</v>
       </c>
       <c r="AM6" t="n">
         <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.0828477931353274</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.01658971900030311</v>
+        <v>0.0794233588265008</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
@@ -3415,133 +3415,133 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.1649567193886975</v>
+        <v>0.05335207860660674</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0</v>
+        <v>0.3255570418780296</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0.01398204831973461</v>
+        <v>-0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.002785347002680436</v>
+        <v>0.3129620663428202</v>
       </c>
       <c r="AY6" t="n">
         <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>-0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.01101527270180652</v>
+        <v>-0.06156106743026009</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0.06393516140053783</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0.04620246125971202</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.05025614146579485</v>
+        <v>-0.203860447302236</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.04027521774906901</v>
+        <v>-0.04204089362199951</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0.1261650985831942</v>
       </c>
       <c r="BN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>-0.03972262802786465</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>-0.05496394385102542</v>
+        <v>0.0473587994575087</v>
       </c>
       <c r="BQ6" t="n">
         <v>-0</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT6" t="n">
         <v>-0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.1744773530158601</v>
+        <v>0.04445843075534905</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0</v>
+        <v>0.24877848118218</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>-0.06532693240789045</v>
+        <v>-0</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.0634429616071974</v>
+        <v>0.1161779066888605</v>
       </c>
       <c r="BZ6" t="n">
         <v>0</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0.03927328560165493</v>
+        <v>0.0266857983015669</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.09525130946993135</v>
       </c>
       <c r="CF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.01238913166534541</v>
+        <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>-0.03870666443825503</v>
+        <v>-0.002559860192863072</v>
       </c>
       <c r="CI6" t="n">
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>-0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0.04861983199500535</v>
+        <v>-0.03669317346733476</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>0.007412226823505213</v>
       </c>
       <c r="CO6" t="n">
         <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.002329392058589954</v>
+        <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.07223411822470144</v>
+        <v>-0.0660633453632762</v>
       </c>
       <c r="CR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS6" t="n">
         <v>0</v>
@@ -3577,79 +3577,79 @@
         <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0.04242979731597422</v>
+        <v>0.01275492670602578</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.09978718110066165</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.01881309517972305</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.07393764510685062</v>
+        <v>-0.011163443815762</v>
       </c>
       <c r="DA6" t="n">
         <v>-0</v>
       </c>
       <c r="DB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
         <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.06602772422219841</v>
+        <v>0.01819076473146449</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.1776066875365628</v>
       </c>
       <c r="DG6" t="n">
         <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.1178328468264554</v>
+        <v>0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.01777465422671027</v>
+        <v>0.07800982848653998</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM6" t="n">
         <v>-0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.07842866451001189</v>
+        <v>0.01434522789658644</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.04099395633608321</v>
       </c>
       <c r="DP6" t="n">
         <v>-0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>-0.02580550508907763</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.07562809802046203</v>
+        <v>0.03171552878235563</v>
       </c>
       <c r="DS6" t="n">
         <v>-0</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
         <v>-0</v>
@@ -3658,46 +3658,46 @@
         <v>0</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.04378745672687796</v>
+        <v>-0.0003976261696203298</v>
       </c>
       <c r="DX6" t="n">
-        <v>0</v>
+        <v>0.1018391103741961</v>
       </c>
       <c r="DY6" t="n">
         <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.06709199842387985</v>
+        <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.139935754908933</v>
+        <v>-0.005827318585311494</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC6" t="n">
         <v>-0</v>
       </c>
       <c r="ED6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE6" t="n">
         <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0.08088641860619189</v>
+        <v>-0.03634575888481029</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.001549288944785051</v>
       </c>
       <c r="EH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.02563187740159817</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.04545783686515745</v>
+        <v>-0.0008341770506632497</v>
       </c>
       <c r="EK6" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0.01896123846195984</v>
+        <v>-0.02952123964422742</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0.1176236999129197</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>-0.05344448776690053</v>
+        <v>-0</v>
       </c>
       <c r="ES6" t="n">
-        <v>-0.08014311646804394</v>
+        <v>-0.007457642366944456</v>
       </c>
       <c r="ET6" t="n">
         <v>-0</v>
@@ -3733,52 +3733,52 @@
         <v>-0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
         <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0.05854253460374507</v>
+        <v>0.00953931721135258</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.1074491410421499</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.0169748844826084</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.06276432709136437</v>
+        <v>-0.05331455325086647</v>
       </c>
       <c r="FC6" t="n">
         <v>0</v>
       </c>
       <c r="FD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>-0.0921258032609068</v>
+        <v>0.04597648835367252</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>-0.03276422777927891</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.04774920701760802</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.02651093189545692</v>
+        <v>-0.08412738562164464</v>
       </c>
       <c r="FL6" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>-0</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.04116357616871853</v>
+        <v>-0.003244236674797563</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0.1724566414505363</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.05271372483490188</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.1135347746522071</v>
+        <v>-0.1402595367211871</v>
       </c>
       <c r="FU6" t="n">
         <v>-0</v>
@@ -3820,81 +3820,81 @@
         <v>-0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.1140696558289798</v>
+        <v>-0.0714047435437033</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>-0.02949661157333354</v>
       </c>
       <c r="GA6" t="n">
         <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>-0.01335408927961974</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD6" t="n">
         <v>-0</v>
       </c>
       <c r="GE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2608649869783653</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0.3948980889289234</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.1740502108928731</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.08663725348976087</v>
+        <v>-0.08867798168150165</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02046218023019456</v>
+        <v>-0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2254836158695811</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.3017043154052031</v>
       </c>
       <c r="L7" t="n">
         <v>-0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.1854228438243722</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1563319125345863</v>
+        <v>-0.1203821309888043</v>
       </c>
       <c r="O7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.002310152205679173</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -3903,25 +3903,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.01322366473359297</v>
+        <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.1300217999422623</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>-0.01650614149336327</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.0918501736056935</v>
+        <v>0.06356894548052225</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.07181807877052694</v>
+        <v>-0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -3930,79 +3930,79 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.08596999742015955</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.1023209534216799</v>
       </c>
       <c r="AD7" t="n">
         <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0</v>
+        <v>0.009151879950970309</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.04309016733233174</v>
+        <v>-0.05789353168634009</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.04721826009669836</v>
+        <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.102821210159158</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.07819369372404204</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0.09223176637026473</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.06274267251809994</v>
+        <v>-0.04112244514449354</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.03676308943227182</v>
+        <v>-0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.2801098835704052</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0</v>
+        <v>0.6262088275900496</v>
       </c>
       <c r="AV7" t="n">
         <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0</v>
+        <v>-0.05895686484566786</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.02059362496918525</v>
+        <v>0.1397120751299656</v>
       </c>
       <c r="AY7" t="n">
         <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.06915955184496039</v>
+        <v>-0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
@@ -4011,133 +4011,133 @@
         <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.08522402036829481</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.01566195346220936</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>-0.09164706799253079</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.05712219044620639</v>
+        <v>-0.1815191560711841</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0.005177959990598088</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.03716954698072159</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>0.02244564511735795</v>
       </c>
       <c r="BN7" t="n">
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0</v>
+        <v>0.1062767066069583</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.1048035550589729</v>
+        <v>0.08344362719736385</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.01296856841120683</v>
+        <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
         <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.198898620523637</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.3263424715754533</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>-0.01658826593165637</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.05066090137732555</v>
+        <v>0.05150974251242511</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.04104281391689617</v>
+        <v>-0</v>
       </c>
       <c r="CB7" t="n">
         <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0.1080160733689093</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.1313712105334076</v>
       </c>
       <c r="CF7" t="n">
         <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0</v>
+        <v>0.05773938177373392</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.02499933239560148</v>
+        <v>-0.02731118129591807</v>
       </c>
       <c r="CI7" t="n">
         <v>-0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>-0.01872353499584132</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0.02094467346343612</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0</v>
+        <v>-0.002861944910056625</v>
       </c>
       <c r="CO7" t="n">
         <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0</v>
+        <v>-0.04289427003566889</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.05930899512750565</v>
+        <v>-0.1133648385948384</v>
       </c>
       <c r="CR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS7" t="n">
-        <v>-0.01348647715443225</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
@@ -4146,79 +4146,79 @@
         <v>0</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0.09499774338034093</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.1229352478178216</v>
       </c>
       <c r="CX7" t="n">
         <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>0.08522141481563167</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.01209530180798631</v>
+        <v>-0.02110608829588588</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0.01750320804407449</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0.007765699696629333</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.08665825667005286</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
+        <v>0.1058243280150816</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.02490085117672623</v>
+        <v>-0.1050852129612996</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
       </c>
       <c r="DK7" t="n">
-        <v>-0.0191726394437288</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM7" t="n">
         <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.006580618807014181</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.07181201243863457</v>
       </c>
       <c r="DP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>-0.01407975474459789</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.03579200902596562</v>
+        <v>-0.04323636068918125</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
-        <v>-0.0626033565041598</v>
+        <v>-0</v>
       </c>
       <c r="DU7" t="n">
         <v>0</v>
@@ -4227,25 +4227,25 @@
         <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>-0.001093127093461392</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>0.03822815466232457</v>
       </c>
       <c r="DY7" t="n">
         <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>-0</v>
+        <v>0.02514894552257554</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.006979670949506122</v>
+        <v>-0.01543806946197377</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.003997900813159876</v>
+        <v>0</v>
       </c>
       <c r="ED7" t="n">
         <v>-0</v>
@@ -4254,52 +4254,52 @@
         <v>-0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0.1572913599605308</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.1215374286785858</v>
       </c>
       <c r="EH7" t="n">
         <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0</v>
+        <v>0.07126864489985905</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.04552339834622875</v>
+        <v>0.1125412624679556</v>
       </c>
       <c r="EK7" t="n">
         <v>-0</v>
       </c>
       <c r="EL7" t="n">
-        <v>-0.04750979236473384</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
         <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0.04367129087009734</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.08256899678866643</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>0.1128777995850468</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.09774966517170709</v>
+        <v>-0.1071327848010282</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.04589832326058449</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
         <v>0</v>
@@ -4308,79 +4308,79 @@
         <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0.09313955479723796</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.1297550963930703</v>
       </c>
       <c r="EZ7" t="n">
         <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0</v>
+        <v>0.08349247375261724</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.002202876582512345</v>
+        <v>-0.03987560294647597</v>
       </c>
       <c r="FC7" t="n">
         <v>-0</v>
       </c>
       <c r="FD7" t="n">
-        <v>-0.01207707027056072</v>
+        <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0.0915690168401382</v>
+        <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.03091826955054853</v>
       </c>
       <c r="FI7" t="n">
         <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0</v>
+        <v>-0.02786477983972563</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.03896442812475429</v>
+        <v>-0.002817318655721576</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.01551104905750341</v>
+        <v>-0</v>
       </c>
       <c r="FN7" t="n">
         <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0.02887721034348049</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.03415082181151265</v>
       </c>
       <c r="FR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0</v>
+        <v>0.130268402562481</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.008167409945385598</v>
+        <v>-0.1298692788610069</v>
       </c>
       <c r="FU7" t="n">
         <v>-0</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.007607115080284835</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
         <v>0</v>
@@ -4389,81 +4389,81 @@
         <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.05293346984837707</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.03847983017309826</v>
       </c>
       <c r="GA7" t="n">
         <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>0.02625067997094474</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.03872676393057384</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
         <v>-0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4367119944212891</v>
+        <v>-0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0.1311470284758748</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1880163258208171</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04544373447743169</v>
+        <v>-0.03134895595989717</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>-0.08041425267108071</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H8" t="n">
         <v>-0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3896663977202171</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.09550588192842238</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.2463656727749421</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.1417084176496574</v>
+        <v>-0.02295238113438983</v>
       </c>
       <c r="O8" t="n">
-        <v>-0</v>
+        <v>-0.08856604028848199</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
         <v>-0</v>
@@ -4472,106 +4472,106 @@
         <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04078150887707822</v>
+        <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0</v>
+        <v>0.02700056578363953</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.1102049008666333</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.285864393199235</v>
+        <v>-0.02718052275288665</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>-0.003876414734385414</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.04985011295145935</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0</v>
+        <v>0.03298249923987621</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.08622015172716092</v>
+        <v>-0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.1804778269488401</v>
+        <v>0.0109638299378031</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0</v>
+        <v>0.02221318357016916</v>
       </c>
       <c r="AH8" t="n">
         <v>-0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.1531186770064286</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.01941547822832968</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.05537860710361949</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.04655850609713499</v>
+        <v>0.005132734164230103</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>-0.05384822853363077</v>
       </c>
       <c r="AQ8" t="n">
         <v>-0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.3393296231316353</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.1466983374704059</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.2717630206421733</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.008140817201820263</v>
+        <v>-0.01861628045028027</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>-0.1219060540057028</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
         <v>-0</v>
@@ -4580,25 +4580,25 @@
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.1482154620049533</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.05177251028414887</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.07288069246441015</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.1256678647970404</v>
+        <v>-0.04491245118168984</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0</v>
+        <v>-0.02853089421309058</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
@@ -4607,22 +4607,22 @@
         <v>-0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.0608460996757151</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.03810467039438268</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.1011688083966774</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
         <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.2313616293475137</v>
+        <v>0.02201528756365864</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0</v>
+        <v>0.01619918781277331</v>
       </c>
       <c r="BR8" t="n">
         <v>-0</v>
@@ -4634,22 +4634,22 @@
         <v>0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.3018525832108635</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.07921992035623786</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0.1263521179929525</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
         <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.01053306059314793</v>
+        <v>-0.007885248851542081</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-0</v>
+        <v>-0.04783961806179107</v>
       </c>
       <c r="CA8" t="n">
         <v>-0</v>
@@ -4661,25 +4661,25 @@
         <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0.1570706038648131</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0.03841211058213765</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.07409326260253887</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
         <v>-0</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.001757720788130089</v>
+        <v>4.639407001919957e-05</v>
       </c>
       <c r="CI8" t="n">
-        <v>0</v>
+        <v>0.03517595369341046</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
@@ -4688,25 +4688,25 @@
         <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0.006523434847892189</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.008403295761704337</v>
       </c>
       <c r="CO8" t="n">
-        <v>-0.01055619947521999</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.08969227810641776</v>
+        <v>-0.002268201958172793</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0</v>
+        <v>-0.007312311189866271</v>
       </c>
       <c r="CS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT8" t="n">
         <v>-0</v>
@@ -4715,49 +4715,49 @@
         <v>-0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0.1323895123321236</v>
+        <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.03183659978332622</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.07624738533475194</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.06669814436035916</v>
+        <v>0.0005021630893029596</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0</v>
+        <v>0.0413862699782641</v>
       </c>
       <c r="DB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC8" t="n">
         <v>-0</v>
       </c>
       <c r="DD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.051319449051919</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0.02843287182340999</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.05476258556672142</v>
+        <v>-0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>-0.07735804601570249</v>
+        <v>0.05368401318292124</v>
       </c>
       <c r="DJ8" t="n">
-        <v>-0</v>
+        <v>0.01585540579069115</v>
       </c>
       <c r="DK8" t="n">
         <v>0</v>
@@ -4766,25 +4766,25 @@
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>-0.01021470033240404</v>
+        <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>0.006554268210559047</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0.06443887374525775</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.01666624542967309</v>
+        <v>0.02183234667290458</v>
       </c>
       <c r="DS8" t="n">
-        <v>-0</v>
+        <v>0.01499361230265445</v>
       </c>
       <c r="DT8" t="n">
         <v>0</v>
@@ -4796,52 +4796,52 @@
         <v>-0</v>
       </c>
       <c r="DW8" t="n">
-        <v>-0.01648516876317934</v>
+        <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>0.03431574802249247</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.02215386227158436</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.1010528562620695</v>
+        <v>-0.01947664027407229</v>
       </c>
       <c r="EB8" t="n">
-        <v>0</v>
+        <v>-0.01013112500033002</v>
       </c>
       <c r="EC8" t="n">
         <v>-0</v>
       </c>
       <c r="ED8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0.2449759942616542</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.0276713896767866</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.1052277055928258</v>
+        <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.01508810139839171</v>
+        <v>0.008076641117176882</v>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>0.022652201165023</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
         <v>0</v>
@@ -4850,25 +4850,25 @@
         <v>-0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0.05998192200092937</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.02054595238644313</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.0833172795440026</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
         <v>0</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.03991575468479528</v>
+        <v>-0.002109964970694648</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0</v>
+        <v>0.01730122447089783</v>
       </c>
       <c r="EU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV8" t="n">
         <v>0</v>
@@ -4877,25 +4877,25 @@
         <v>0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0.1417542528733758</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.0334467879417267</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.07135041987274572</v>
+        <v>0</v>
       </c>
       <c r="FA8" t="n">
         <v>0</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.03833098090489605</v>
+        <v>0.003756130012583553</v>
       </c>
       <c r="FC8" t="n">
-        <v>0</v>
+        <v>0.03851342972156284</v>
       </c>
       <c r="FD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE8" t="n">
         <v>0</v>
@@ -4904,79 +4904,79 @@
         <v>0</v>
       </c>
       <c r="FG8" t="n">
-        <v>-0.1289567029121144</v>
+        <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>-0.02104637199650531</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.07576132256418866</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
         <v>-0</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0.05932424307535024</v>
+        <v>-0.03002349287780976</v>
       </c>
       <c r="FL8" t="n">
-        <v>0</v>
+        <v>0.03786204686279608</v>
       </c>
       <c r="FM8" t="n">
         <v>-0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
         <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>-0.04434566080193263</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>-0.02791305203686751</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.01181091829503945</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
         <v>-0</v>
       </c>
       <c r="FT8" t="n">
-        <v>-0.04671668597769902</v>
+        <v>0.008373187178959348</v>
       </c>
       <c r="FU8" t="n">
-        <v>0</v>
+        <v>0.003090746937206496</v>
       </c>
       <c r="FV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.07660130406185335</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>-0.02610521004527848</v>
       </c>
       <c r="GA8" t="n">
-        <v>-0.07092688521675627</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC8" t="n">
         <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>-0</v>
+        <v>-0.02366858393662821</v>
       </c>
       <c r="GE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF8" t="n">
         <v>-0</v>
@@ -4987,52 +4987,52 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2049721205626295</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.3629992948746502</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-0.09843947419004506</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.04690405425102952</v>
+        <v>-0.06033032646433827</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01884726341726957</v>
+        <v>-0</v>
       </c>
       <c r="H9" t="n">
         <v>-0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.168467414707345</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.2460453791278457</v>
       </c>
       <c r="L9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.1029145230359791</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.09595060486927083</v>
+        <v>-0.08068801364553647</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.0004481944934565785</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -5041,25 +5041,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001893097218667048</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1060768476385678</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>-0.03508420216012582</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.07778735287890488</v>
+        <v>-0.02281937228567449</v>
       </c>
       <c r="X9" t="n">
         <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.07127409868372772</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -5068,79 +5068,79 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.03402684317593642</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.07054107440385241</v>
       </c>
       <c r="AD9" t="n">
         <v>-0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0</v>
+        <v>-0.01999017648118179</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.002560512163612654</v>
+        <v>-0.05784126368888541</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.04135320619755065</v>
+        <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
         <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.06664668359086232</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.0530577346282945</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>-0.03505366566428678</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.02453491669325363</v>
+        <v>-0.05925070623670553</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.01687669999762343</v>
+        <v>-0</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.1827621634746214</v>
+        <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>0.4653046895302342</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0</v>
+        <v>-0.0577187557342933</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.04013561158664468</v>
+        <v>0.08626915334672466</v>
       </c>
       <c r="AY9" t="n">
         <v>-0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.05645547617141444</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
         <v>-0</v>
@@ -5149,133 +5149,133 @@
         <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.05853210448971907</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.0506198906237716</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>-0.06555036498833354</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.05111870901666171</v>
+        <v>-0.1524806036185816</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.01713092435811775</v>
+        <v>-0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.03054716665621619</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.0812192862351433</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>-0</v>
+        <v>0.07856996475380053</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.07172812716149497</v>
+        <v>0.09594897101958694</v>
       </c>
       <c r="BQ9" t="n">
         <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.02609658387771077</v>
+        <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.1324146855436867</v>
+        <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.2496150057365549</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0</v>
+        <v>-0.032005136501742</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.01507848728009285</v>
+        <v>0.01565307708409762</v>
       </c>
       <c r="BZ9" t="n">
         <v>-0</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.03040960113857484</v>
+        <v>-0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0.06996095378541387</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.09723990561491971</v>
       </c>
       <c r="CF9" t="n">
         <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0</v>
+        <v>0.0353470940056947</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.01724823900629802</v>
+        <v>-0.01739678796668411</v>
       </c>
       <c r="CI9" t="n">
         <v>-0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0.01651904153628594</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
         <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0.004722361827642911</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0</v>
+        <v>-0.01122865796865931</v>
       </c>
       <c r="CO9" t="n">
         <v>-0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0</v>
+        <v>-0.01035180994477812</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.02543116417528123</v>
+        <v>-0.05751465494921092</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0.004932626248825187</v>
+        <v>-0</v>
       </c>
       <c r="CT9" t="n">
         <v>-0</v>
@@ -5284,52 +5284,52 @@
         <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0.06420669418492465</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.09071480846873059</v>
       </c>
       <c r="CX9" t="n">
         <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>0</v>
+        <v>0.05737371817360408</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.001322852675335618</v>
+        <v>-0.02361467142813971</v>
       </c>
       <c r="DA9" t="n">
         <v>0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0.00846376315071035</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
         <v>-0</v>
       </c>
       <c r="DD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0.001822957512787206</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.07050370874462043</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>0</v>
+        <v>0.1698399706376202</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.009679280699902809</v>
+        <v>0.01629079350553512</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>-0.008559987491293806</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
         <v>0</v>
@@ -5338,106 +5338,106 @@
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.03263166071593866</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.06131588489345986</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>-0</v>
+        <v>-0.03515773888997505</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.04688476750096641</v>
+        <v>-0.02074634147054091</v>
       </c>
       <c r="DS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT9" t="n">
-        <v>-0.04818835532721483</v>
+        <v>-0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
         <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.01116735814822068</v>
+        <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>0.03755599280244309</v>
       </c>
       <c r="DY9" t="n">
         <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0</v>
+        <v>0.02493832144355154</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.001782893316797957</v>
+        <v>-0.02523919192784797</v>
       </c>
       <c r="EB9" t="n">
         <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0.008317297065668682</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE9" t="n">
         <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0.1121223019895598</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.07465090238060434</v>
       </c>
       <c r="EH9" t="n">
         <v>0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0</v>
+        <v>-0.08863154978300078</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.02625088797892183</v>
+        <v>0.03671816841225122</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0.04053516623859434</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
         <v>-0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0.03448479959564401</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.07746877673009528</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>0</v>
+        <v>0.06558205699425958</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.08178144906308128</v>
+        <v>-0.0315903712509674</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.01324675848925526</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
         <v>0</v>
@@ -5446,79 +5446,79 @@
         <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0.05773753065810462</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.08869310185263275</v>
       </c>
       <c r="EZ9" t="n">
         <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0</v>
+        <v>0.05983880359726301</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0.006270134384559868</v>
+        <v>-0.02574893837492392</v>
       </c>
       <c r="FC9" t="n">
         <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0.004813334323459421</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
         <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>-0.06420713128051704</v>
+        <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>0.009938525374253888</v>
       </c>
       <c r="FI9" t="n">
         <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0</v>
+        <v>0.02432709789566853</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.04684412370811262</v>
+        <v>-0.02638065225951762</v>
       </c>
       <c r="FL9" t="n">
         <v>-0</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.02573502298591845</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0.02057829008092302</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>0.003995899038994031</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0</v>
+        <v>0.0181059294222145</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.02815463744207079</v>
+        <v>-0.03943193679969166</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.002086453024479755</v>
+        <v>-0</v>
       </c>
       <c r="FW9" t="n">
         <v>0</v>
@@ -5527,626 +5527,626 @@
         <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.02961035970994453</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>-0.0236306823015286</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>0.01833117156871093</v>
       </c>
       <c r="GC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.00854546674747129</v>
+        <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>-0.04721763183016317</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1572432912821578</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0.1543917161172184</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0135798654403767</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04966075318890856</v>
+        <v>0.08592446198559817</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0.04665564228505617</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.02079356558570994</v>
+        <v>-0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>-0.0002181285956789655</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1089038588104297</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.1002024324230659</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.01048513332060992</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.04432824368213428</v>
+        <v>0.02695366348752834</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0.04455246509207006</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.03511333134602734</v>
+        <v>-0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>-0.03414693819779742</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.03051311602395859</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.07527535323791922</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.01653175660553187</v>
+        <v>-0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01131069880268851</v>
+        <v>0.05699846557730361</v>
       </c>
       <c r="X10" t="n">
         <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0.0548044609964967</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.0317731136766874</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>-0.02663774473418924</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0918575643266514</v>
+        <v>-0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>0.06733132177063354</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.0184595674739804</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.004396627964668911</v>
+        <v>0.03837364438148697</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>-0.01673705563947327</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.01577279871369171</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0.0003630463619830569</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.09081282915008444</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>-0.03612820634334617</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.01561879590431321</v>
+        <v>-0</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.008055871691299272</v>
+        <v>-0.02184316150024498</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>-0.01016348716835931</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.001280131559602884</v>
+        <v>0</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0</v>
+        <v>-0.04328688936867071</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.164817245120518</v>
+        <v>-0</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>0.2190436371728998</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.0147497615297778</v>
+        <v>-0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.02360216460706418</v>
+        <v>0.2988304772238866</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0</v>
+        <v>-0.01896773321960068</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.04540300992264366</v>
+        <v>-0</v>
       </c>
       <c r="BB10" t="n">
         <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0</v>
+        <v>-0.07214474535715862</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.05814506873585436</v>
+        <v>0</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0</v>
+        <v>-0.01916570130576715</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0.009314122063603308</v>
+        <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.0005472693146268909</v>
+        <v>-0.01407073035435497</v>
       </c>
       <c r="BH10" t="n">
         <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>-0.04267843095970511</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0.04321458294994781</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
         <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0.003335532197343382</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.01096730309756792</v>
+        <v>-0</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0</v>
+        <v>0.1076856307091064</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0.03078398846385551</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.04903037657722063</v>
+        <v>0.04823576941403537</v>
       </c>
       <c r="BQ10" t="n">
         <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>-0</v>
+        <v>0.02813168977080944</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.02649605612146095</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
         <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0</v>
+        <v>-0.0217444663010062</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.06546032481305787</v>
+        <v>-0</v>
       </c>
       <c r="BW10" t="n">
-        <v>0</v>
+        <v>0.05732665217720135</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0.01852105224786325</v>
+        <v>-0</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.007059323532980303</v>
+        <v>0.202612912290232</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>-0</v>
+        <v>-0.03949914386459753</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.03100581479548637</v>
+        <v>-0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0</v>
+        <v>0.02856842039815325</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0.05160413142625382</v>
+        <v>-0</v>
       </c>
       <c r="CF10" t="n">
-        <v>0</v>
+        <v>-0.04584592059462468</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0.007470477408237022</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.02156237253048016</v>
+        <v>-0.02716642259282045</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0</v>
+        <v>0.03071314587756911</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.01397952712264753</v>
+        <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0.02299985259838213</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0.01748920065471002</v>
+        <v>0</v>
       </c>
       <c r="CO10" t="n">
-        <v>0</v>
+        <v>0.007112116121463358</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0.001150284118197452</v>
+        <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.0392009978036925</v>
+        <v>-0.07315215811266733</v>
       </c>
       <c r="CR10" t="n">
         <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>-0</v>
+        <v>-0.0002022282476589621</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.00304588359511167</v>
+        <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0.01618311959948777</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0.05273077706265298</v>
+        <v>0</v>
       </c>
       <c r="CX10" t="n">
-        <v>-0</v>
+        <v>-0.04126077516050915</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.002343570886585104</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.02547053486091966</v>
+        <v>0.002597102713438232</v>
       </c>
       <c r="DA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB10" t="n">
-        <v>0</v>
+        <v>0.03513433173036249</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.009945510403958566</v>
+        <v>0</v>
       </c>
       <c r="DD10" t="n">
         <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>0.02693819873231675</v>
       </c>
       <c r="DF10" t="n">
-        <v>-0.02523724322483303</v>
+        <v>-0</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>-0.04634927981621421</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.01485846057049204</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.02705861856465895</v>
+        <v>0.01756772099881736</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>-0</v>
+        <v>0.03086334235184199</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.02652429085190624</v>
+        <v>-0</v>
       </c>
       <c r="DM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN10" t="n">
-        <v>-0</v>
+        <v>0.04672021279145865</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0.01537446702459962</v>
+        <v>-0</v>
       </c>
       <c r="DP10" t="n">
-        <v>0</v>
+        <v>0.01720663536355539</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.01613362971307924</v>
+        <v>-0</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.007736287642828292</v>
+        <v>-0.02785344536350228</v>
       </c>
       <c r="DS10" t="n">
         <v>0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>0.03704616916294061</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.01115303441911505</v>
+        <v>-0</v>
       </c>
       <c r="DV10" t="n">
         <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>0</v>
+        <v>-0.007419994549347245</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.01156125294019776</v>
+        <v>0</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0</v>
+        <v>0.02875219393831091</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.03097874747916311</v>
+        <v>0</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.01315488850884225</v>
+        <v>-0.04670147497510798</v>
       </c>
       <c r="EB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0</v>
+        <v>-0.000153701711460362</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.01802368288141189</v>
+        <v>0</v>
       </c>
       <c r="EE10" t="n">
         <v>-0</v>
       </c>
       <c r="EF10" t="n">
-        <v>0</v>
+        <v>-0.006162976908483303</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0.05354895605353033</v>
+        <v>0</v>
       </c>
       <c r="EH10" t="n">
-        <v>0</v>
+        <v>-0.1036142042218878</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.01288411551175759</v>
+        <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.03763565963523041</v>
+        <v>0.05203926089574881</v>
       </c>
       <c r="EK10" t="n">
         <v>-0</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0</v>
+        <v>0.008460449785937598</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.01241948791391953</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO10" t="n">
-        <v>0</v>
+        <v>0.01057927985086754</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0.02083038772953299</v>
+        <v>0</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0</v>
+        <v>-0.01628850735478286</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.0504361053458487</v>
+        <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>-0.006647928141766415</v>
+        <v>-0.0535392394240689</v>
       </c>
       <c r="ET10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU10" t="n">
-        <v>-0</v>
+        <v>-0.003424427519302957</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.03249656948708995</v>
+        <v>-0</v>
       </c>
       <c r="EW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0</v>
+        <v>0.01768019578167852</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0.04470162429159177</v>
+        <v>-0</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0</v>
+        <v>-0.04494425053755952</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0.001728301058597796</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.01693916039106141</v>
+        <v>-0.01816987194153631</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD10" t="n">
-        <v>-0</v>
+        <v>0.03335754188693371</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.01874478175927475</v>
+        <v>0</v>
       </c>
       <c r="FF10" t="n">
         <v>-0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0</v>
+        <v>0.01269324761613692</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0.0339638070017282</v>
+        <v>-0</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0</v>
+        <v>-0.0007987069427005477</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.02873301752638891</v>
+        <v>-0</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.01062078465654655</v>
+        <v>-0.009377133278481633</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
-        <v>-0</v>
+        <v>-0.03972998865588775</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.0308993084708338</v>
+        <v>0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0</v>
+        <v>0.02964507365166902</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0.01382150316031553</v>
+        <v>0</v>
       </c>
       <c r="FR10" t="n">
-        <v>0</v>
+        <v>0.04120901913544261</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.06366073526318589</v>
+        <v>0</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.00122479946342808</v>
+        <v>-0.06880846960483501</v>
       </c>
       <c r="FU10" t="n">
         <v>0</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0</v>
+        <v>0.02086565287695602</v>
       </c>
       <c r="FW10" t="n">
-        <v>-0.008256338419890716</v>
+        <v>-0</v>
       </c>
       <c r="FX10" t="n">
         <v>-0</v>
       </c>
       <c r="FY10" t="n">
-        <v>-0</v>
+        <v>-0.02150627269762451</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0.005633592795192411</v>
+        <v>-0</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>0.00414362987797256</v>
       </c>
       <c r="GB10" t="n">
-        <v>-0.05918929666247826</v>
+        <v>-0</v>
       </c>
       <c r="GC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0.02244547011170255</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.01338951670578545</v>
+        <v>0</v>
       </c>
       <c r="GG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4682129743232075</v>
+        <v>0.1259807333601117</v>
       </c>
       <c r="C11" t="n">
         <v>-0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1221330757538603</v>
+        <v>-0.02301937546483914</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2614422884105539</v>
+        <v>-0.08581315387856449</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I11" t="n">
         <v>-0</v>
@@ -6155,73 +6155,73 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4046479097086814</v>
+        <v>0.09748609234614791</v>
       </c>
       <c r="L11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.06711835632079025</v>
+        <v>-0.01647224901781712</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.2844305037744441</v>
+        <v>-0.07542484894716346</v>
       </c>
       <c r="P11" t="n">
         <v>-0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R11" t="n">
         <v>-0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.08313045219476865</v>
+        <v>0.01815649936774794</v>
       </c>
       <c r="U11" t="n">
         <v>-0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.009358320841414478</v>
+        <v>-0.01167744740018464</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.1070104509939395</v>
+        <v>-0.01308893186328479</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1313723764624777</v>
+        <v>0.02124544115510041</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.169950422912196e-05</v>
+        <v>0.01570383282279056</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.1502623342163971</v>
+        <v>0.01242289551271871</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -6230,25 +6230,25 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.1079265624180262</v>
+        <v>0.01051367626247591</v>
       </c>
       <c r="AM11" t="n">
         <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.01624547466869416</v>
+        <v>0.007078499889254015</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0.1330061488309829</v>
+        <v>-0.04333289229419343</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -6263,7 +6263,7 @@
         <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.2837798157255083</v>
+        <v>0.1066469265611727</v>
       </c>
       <c r="AV11" t="n">
         <v>-0</v>
@@ -6272,10 +6272,10 @@
         <v>-0</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.02351441680675587</v>
+        <v>0.002832920522001366</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0.1366620392169457</v>
+        <v>-0.07863699671722171</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
@@ -6284,25 +6284,25 @@
         <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.1978001788912677</v>
+        <v>0.05982816657989944</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.04867695455665548</v>
+        <v>-0.03497832534825539</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0.04361649022465128</v>
+        <v>-0.04485198471978241</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6311,25 +6311,25 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>-0.02672531672118818</v>
+        <v>0.04165054483651519</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.1405230416161611</v>
+        <v>0.01658229702873098</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.2197227100848611</v>
+        <v>0.008553383750207671</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
@@ -6344,34 +6344,34 @@
         <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.1414920082935223</v>
+        <v>0.05497981887600373</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.1580682696994384</v>
+        <v>-0.01025617373814926</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0.3069271622598846</v>
+        <v>-0.03952080270429321</v>
       </c>
       <c r="CA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>-0.1306964058648116</v>
+        <v>-0.02969030730933977</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
@@ -6380,52 +6380,52 @@
         <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.02189621902946932</v>
+        <v>0.001415961895782184</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.07517067207984272</v>
+        <v>0.02396474727452016</v>
       </c>
       <c r="CJ11" t="n">
         <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
         <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.03554664183053918</v>
+        <v>-0.007102225870887156</v>
       </c>
       <c r="CO11" t="n">
         <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.02563047691676187</v>
+        <v>0.00123468192209517</v>
       </c>
       <c r="CR11" t="n">
-        <v>-0.07406090283787831</v>
+        <v>-0.006264636836106673</v>
       </c>
       <c r="CS11" t="n">
         <v>-0</v>
       </c>
       <c r="CT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0.1148452342626248</v>
+        <v>-0.02331535123478067</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
@@ -6434,16 +6434,16 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.004593021553163611</v>
+        <v>-0.001550318815285936</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.06423188252105019</v>
+        <v>0.02777984056282974</v>
       </c>
       <c r="DB11" t="n">
         <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD11" t="n">
         <v>0</v>
@@ -6452,73 +6452,73 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.008757617779497195</v>
+        <v>-0.01109436781000972</v>
       </c>
       <c r="DG11" t="n">
         <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.06200051224926181</v>
+        <v>0.0102775413737261</v>
       </c>
       <c r="DJ11" t="n">
-        <v>-0.02661701857050215</v>
+        <v>0.02860249517489055</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
         <v>0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.007199161100428329</v>
+        <v>-0.008657518566327729</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.001527095335795207</v>
+        <v>0.03496376121616514</v>
       </c>
       <c r="DS11" t="n">
-        <v>-0.1160886064984557</v>
+        <v>0.0003430155950841797</v>
       </c>
       <c r="DT11" t="n">
         <v>0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
         <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.06183035356976275</v>
+        <v>0.03113114938514686</v>
       </c>
       <c r="DY11" t="n">
         <v>-0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.05914144664076114</v>
+        <v>-0.0100656492026086</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0.03442754615702722</v>
+        <v>-0.01342476963610098</v>
       </c>
       <c r="EC11" t="n">
         <v>-0</v>
@@ -6527,25 +6527,25 @@
         <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>-0.2301889141488858</v>
+        <v>-0.01900929513019758</v>
       </c>
       <c r="EH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.1215128929012087</v>
+        <v>0.006235848460082736</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.09941276734689924</v>
+        <v>0.006940470488230846</v>
       </c>
       <c r="EL11" t="n">
         <v>-0</v>
@@ -6554,112 +6554,112 @@
         <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>-0.01530051792881001</v>
+        <v>-0.009401322862424734</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.009264792429620148</v>
+        <v>-0.01165856675682221</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.1557359777511974</v>
+        <v>0.01706466590410159</v>
       </c>
       <c r="EU11" t="n">
         <v>0</v>
       </c>
       <c r="EV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX11" t="n">
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>-0.1166622652999453</v>
+        <v>-0.02445884056529072</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.02620841871142079</v>
+        <v>0.006486081437289151</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.08727416932987427</v>
+        <v>0.02873229378686575</v>
       </c>
       <c r="FD11" t="n">
         <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0.06707697802838222</v>
+        <v>-0.001219238720694797</v>
       </c>
       <c r="FI11" t="n">
         <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.03322055140194012</v>
+        <v>-0.02345380623643031</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.1006399443842904</v>
+        <v>0.03328554585826819</v>
       </c>
       <c r="FM11" t="n">
         <v>-0</v>
       </c>
       <c r="FN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>-0.04521016911002504</v>
+        <v>-0.007729298666214851</v>
       </c>
       <c r="FR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
         <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.01008970078273541</v>
+        <v>0.009427304773750422</v>
       </c>
       <c r="FU11" t="n">
-        <v>-0.007965188073978932</v>
+        <v>-0.001213185668404891</v>
       </c>
       <c r="FV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
         <v>-0</v>
@@ -6668,78 +6668,78 @@
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.01018281859136606</v>
+        <v>-0.01553979355634512</v>
       </c>
       <c r="GA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
         <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0.04633017544648894</v>
+        <v>-0.0365565510022353</v>
       </c>
       <c r="GE11" t="n">
         <v>-0</v>
       </c>
       <c r="GF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3011729798312855</v>
+        <v>0.4370842760053621</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1044793688934661</v>
+        <v>-0.1741296236417095</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.02982925759627624</v>
+        <v>-0.1582820569784088</v>
       </c>
       <c r="F12" t="n">
         <v>-0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
         <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2816788897966684</v>
+        <v>0.3801920519853615</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.08068057435707267</v>
+        <v>-0.1671028522051645</v>
       </c>
       <c r="N12" t="n">
-        <v>0.004168567468072758</v>
+        <v>-0.1774863071115594</v>
       </c>
       <c r="O12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -6748,52 +6748,52 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01000383311599012</v>
+        <v>0.09309674698792475</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.03040000007126086</v>
+        <v>-0.0360002653715732</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1472634069017859</v>
+        <v>0.07201651147374044</v>
       </c>
       <c r="X12" t="n">
         <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
         <v>-0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.1069593702734138</v>
+        <v>0.1422469761750964</v>
       </c>
       <c r="AD12" t="n">
         <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.05378830340783233</v>
+        <v>0.005973454495070292</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.0209478411285945</v>
+        <v>0.004517758523531985</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI12" t="n">
         <v>-0</v>
@@ -6802,79 +6802,79 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.0760801324679045</v>
+        <v>0.02239730769743459</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.04077359037717396</v>
+        <v>-0.04164771337476206</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.002716063366914315</v>
+        <v>-0.09484296920906947</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR12" t="n">
         <v>-0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.2853645292137868</v>
+        <v>0.5054440680354074</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.00768901486399213</v>
+        <v>-0.0621019814080568</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.02238838885481021</v>
+        <v>0.007534925546275908</v>
       </c>
       <c r="AY12" t="n">
         <v>-0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
         <v>-0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.06702374947440259</v>
+        <v>0.08072219145558869</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0.07486608190112418</v>
+        <v>-0.09710005877592084</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.00640303170529168</v>
+        <v>-0.1398758339933191</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ12" t="n">
         <v>-0</v>
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0.05256957567093693</v>
+        <v>0.1323844144330903</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>-0.05709031466809138</v>
+        <v>0.0665949814058109</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.01760676866061098</v>
+        <v>0.1631490508231854</v>
       </c>
       <c r="BQ12" t="n">
         <v>-0</v>
@@ -6913,16 +6913,16 @@
         <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.1036287855833907</v>
+        <v>0.3009975507039233</v>
       </c>
       <c r="BW12" t="n">
         <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>-0.05105871410322577</v>
+        <v>-0.07022886576382249</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.08977209698261213</v>
+        <v>0.0590307998367834</v>
       </c>
       <c r="BZ12" t="n">
         <v>-0</v>
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
         <v>-0</v>
@@ -6940,73 +6940,73 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0.1029503396620709</v>
+        <v>-0.1042755560469199</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.02752610753911729</v>
+        <v>0.03019786213611127</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.01645782910041246</v>
+        <v>0.02357534322878754</v>
       </c>
       <c r="CI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ12" t="n">
         <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
         <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0.02828062379212666</v>
+        <v>-0.07429081918419181</v>
       </c>
       <c r="CO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.002493418516673005</v>
+        <v>-0.02033787747252617</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.08052757740345542</v>
+        <v>-0.07895232376003369</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
         <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0.09915450898419703</v>
+        <v>-0.09007417473117446</v>
       </c>
       <c r="CX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.03145662439741986</v>
+        <v>0.05223949315922682</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.0261886359981291</v>
+        <v>0.01566577169192368</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB12" t="n">
         <v>0</v>
@@ -7018,28 +7018,28 @@
         <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>-0.08954564444561425</v>
+        <v>0.00880365497699854</v>
       </c>
       <c r="DG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.01910270776053443</v>
+        <v>0.1316227318078869</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.005312515327884803</v>
+        <v>0.01248660227866101</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK12" t="n">
         <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
@@ -7048,19 +7048,19 @@
         <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>-0.05033000913347487</v>
+        <v>-0.07690239515886216</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.01968678204435562</v>
+        <v>-0.06064218562009874</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.07335043615504339</v>
+        <v>-0.09975891257276459</v>
       </c>
       <c r="DS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT12" t="n">
         <v>-0</v>
@@ -7075,25 +7075,25 @@
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0.06862323729652545</v>
+        <v>-0.1365317735925978</v>
       </c>
       <c r="DY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>-0.01417650700122716</v>
+        <v>-0.03034659499524232</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.05108987697729012</v>
+        <v>-0.0721025289704416</v>
       </c>
       <c r="EB12" t="n">
         <v>0</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
         <v>-0</v>
@@ -7102,19 +7102,19 @@
         <v>-0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0.08844190390483567</v>
+        <v>-0.09060298126207531</v>
       </c>
       <c r="EH12" t="n">
         <v>0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.04179598470369641</v>
+        <v>0.08112203924138668</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.05429821394473671</v>
+        <v>0.1325908811703992</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
@@ -7123,25 +7123,25 @@
         <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0.01551772481111136</v>
+        <v>-0.06552586126714904</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.04937390105860023</v>
+        <v>0.03863604209671648</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.01952694651381958</v>
+        <v>0.06851212717296633</v>
       </c>
       <c r="ET12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU12" t="n">
         <v>0</v>
@@ -7156,43 +7156,43 @@
         <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0.09471195289258921</v>
+        <v>-0.09040044057764737</v>
       </c>
       <c r="EZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.02356155898468748</v>
+        <v>0.05539673945303962</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.02679673239221754</v>
+        <v>0.03705297352348669</v>
       </c>
       <c r="FC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE12" t="n">
         <v>-0</v>
       </c>
       <c r="FF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG12" t="n">
         <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.05657710943504307</v>
+        <v>-0.1094169810494372</v>
       </c>
       <c r="FI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.07291027330920755</v>
+        <v>0.06109829855458181</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.01934836961119024</v>
+        <v>-0.05369970870333072</v>
       </c>
       <c r="FL12" t="n">
         <v>-0</v>
@@ -7204,55 +7204,55 @@
         <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
         <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0.005458671110886442</v>
+        <v>0.01964714358159579</v>
       </c>
       <c r="FR12" t="n">
         <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.02339910723510465</v>
+        <v>-0.03098093925463654</v>
       </c>
       <c r="FT12" t="n">
-        <v>-0.009960073961810792</v>
+        <v>-0.03974346711908143</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0.1009663354899675</v>
+        <v>-0.04896156636712201</v>
       </c>
       <c r="GA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB12" t="n">
-        <v>-0.015082700677131</v>
+        <v>-0.03619280308855152</v>
       </c>
       <c r="GC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF12" t="n">
         <v>0</v>
@@ -7263,22 +7263,22 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2432074124105812</v>
+        <v>0.1718189728779962</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>-0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1754579969461711</v>
+        <v>-0.1119981729098626</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1638157601770224</v>
+        <v>0.1085928568610091</v>
       </c>
       <c r="F13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -7290,49 +7290,49 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2192928657830241</v>
+        <v>0.1622655178038572</v>
       </c>
       <c r="K13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.1699411662513638</v>
+        <v>-0.03858679198062701</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1021210986939699</v>
+        <v>0.05102244742999536</v>
       </c>
       <c r="O13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01716042266104557</v>
+        <v>0.03645129677684913</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.1260717158100199</v>
+        <v>0.05975966303264901</v>
       </c>
       <c r="W13" t="n">
-        <v>0.02440004294076827</v>
+        <v>0.04164408929765993</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y13" t="n">
         <v>-0</v>
@@ -7341,22 +7341,22 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.02190719166413769</v>
+        <v>-0.02148401684059368</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.01061439272870911</v>
+        <v>-0.01337116980043242</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.05071964395798693</v>
+        <v>0.02397573194503859</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -7371,19 +7371,19 @@
         <v>-0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.09330322942813529</v>
+        <v>-0.01167717167676426</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.09158923600263899</v>
+        <v>-0.02216538449117626</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.02000112109872097</v>
+        <v>-0.06139862228301438</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
@@ -7395,52 +7395,52 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.1306909114598236</v>
+        <v>0.1136665514123651</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.08955441507733473</v>
+        <v>-0.07444079825058575</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1103502032662981</v>
+        <v>0.1597481966540818</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
         <v>-0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.08738581575127426</v>
+        <v>0.1109082855224972</v>
       </c>
       <c r="BD13" t="n">
         <v>0</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0.0988716719593345</v>
+        <v>0.0001911530304130537</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.09928452734193398</v>
+        <v>0.06999080378094881</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI13" t="n">
         <v>0</v>
@@ -7449,82 +7449,82 @@
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.02299952246277062</v>
+        <v>0.05241434047031007</v>
       </c>
       <c r="BM13" t="n">
         <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0.0252652131976652</v>
+        <v>0.01313696484277989</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.01746063984485034</v>
+        <v>0.10505679081605</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR13" t="n">
         <v>0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT13" t="n">
         <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.1660488697045822</v>
+        <v>0.06467075305022432</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW13" t="n">
         <v>-0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0.09692167319885207</v>
+        <v>-0.01560712461637712</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.0841108049539853</v>
+        <v>0.08122569375042819</v>
       </c>
       <c r="BZ13" t="n">
         <v>0</v>
       </c>
       <c r="CA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
         <v>-0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0.06680679617227453</v>
+        <v>-0.03167472754986586</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.03207008213252879</v>
+        <v>-0.01264060167983138</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.05622120556352711</v>
+        <v>-0.02567930385950694</v>
       </c>
       <c r="CI13" t="n">
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK13" t="n">
         <v>0</v>
@@ -7533,52 +7533,52 @@
         <v>-0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0.02840231199119309</v>
+        <v>-0.02239430663506179</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO13" t="n">
         <v>-0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.000933133542504641</v>
+        <v>-0.06568911298480125</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.07429031409652248</v>
+        <v>-0.07043356334040066</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0.05505322236681914</v>
+        <v>-0.02175154064005948</v>
       </c>
       <c r="CW13" t="n">
         <v>-0</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.01555496856887386</v>
+        <v>0.0009885559782112708</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.06969207502373946</v>
+        <v>-0.01470668757315542</v>
       </c>
       <c r="DA13" t="n">
         <v>-0</v>
       </c>
       <c r="DB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC13" t="n">
         <v>-0</v>
@@ -7587,19 +7587,19 @@
         <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0.002120311190941553</v>
+        <v>-0.01798624950906793</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>-0.008143899471837355</v>
+        <v>0.0750946527953705</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.05178723119814063</v>
+        <v>-0.02641118039748334</v>
       </c>
       <c r="DJ13" t="n">
         <v>0</v>
@@ -7608,58 +7608,58 @@
         <v>-0</v>
       </c>
       <c r="DL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.01395538648485119</v>
+        <v>-0.0234958137637556</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>-0.008135383133958301</v>
+        <v>0.03681225530222768</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.02776826435186981</v>
+        <v>-0.06655966960781814</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT13" t="n">
         <v>0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.01788405766982364</v>
+        <v>-0.03996376736383249</v>
       </c>
       <c r="DX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY13" t="n">
         <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>-0.001711877768540507</v>
+        <v>-0.02365154207226329</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.02368770655872555</v>
+        <v>-0.02216878564396906</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
         <v>-0</v>
@@ -7668,25 +7668,25 @@
         <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0.1405603676809375</v>
+        <v>-0.02373117537508749</v>
       </c>
       <c r="EG13" t="n">
         <v>0</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.02615218433683771</v>
+        <v>0.01487067321483362</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.05667668288289722</v>
+        <v>-0.009434749953873977</v>
       </c>
       <c r="EK13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
         <v>0</v>
@@ -7695,7 +7695,7 @@
         <v>-0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0.02176100067948551</v>
+        <v>-0.009614901561347231</v>
       </c>
       <c r="EP13" t="n">
         <v>0</v>
@@ -7704,16 +7704,16 @@
         <v>-0</v>
       </c>
       <c r="ER13" t="n">
-        <v>-0.03773698458358255</v>
+        <v>0.0199044463827133</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.04436781072149583</v>
+        <v>0.006426188200675419</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV13" t="n">
         <v>0</v>
@@ -7722,46 +7722,46 @@
         <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0.06284440857453458</v>
+        <v>-0.02267507688106702</v>
       </c>
       <c r="EY13" t="n">
         <v>0</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.02199357970144189</v>
+        <v>-0.008291494852606208</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.06632124123533094</v>
+        <v>-0.02507287181457483</v>
       </c>
       <c r="FC13" t="n">
         <v>0</v>
       </c>
       <c r="FD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE13" t="n">
         <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.06947124362608621</v>
+        <v>-0.01577414788270292</v>
       </c>
       <c r="FH13" t="n">
         <v>0</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.07677933444696539</v>
+        <v>0.02393219954718961</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.07667519359431946</v>
+        <v>-0.1173181824528978</v>
       </c>
       <c r="FL13" t="n">
         <v>0</v>
@@ -7770,40 +7770,40 @@
         <v>-0</v>
       </c>
       <c r="FN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO13" t="n">
         <v>-0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0.02869762974200186</v>
+        <v>0.006845432113405612</v>
       </c>
       <c r="FQ13" t="n">
         <v>0</v>
       </c>
       <c r="FR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.06887530745614902</v>
+        <v>0.004880586868035616</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.003559012347191522</v>
+        <v>0.0499783088954413</v>
       </c>
       <c r="FU13" t="n">
         <v>-0</v>
       </c>
       <c r="FV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW13" t="n">
         <v>0</v>
       </c>
       <c r="FX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.0694610528862159</v>
+        <v>0.02229574876643774</v>
       </c>
       <c r="FZ13" t="n">
         <v>0</v>
@@ -7812,30 +7812,30 @@
         <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>-0.008466748044984419</v>
+        <v>-0.019358411645213</v>
       </c>
       <c r="GC13" t="n">
         <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
         <v>0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -7859,10 +7859,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -7913,10 +7913,10 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -7940,10 +7940,10 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -7967,10 +7967,10 @@
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
@@ -8048,10 +8048,10 @@
         <v>0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
@@ -8102,10 +8102,10 @@
         <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO14" t="n">
         <v>0</v>
@@ -8156,10 +8156,10 @@
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
@@ -8183,10 +8183,10 @@
         <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
@@ -8210,10 +8210,10 @@
         <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
@@ -8237,10 +8237,10 @@
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
@@ -8264,10 +8264,10 @@
         <v>0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
@@ -8401,10 +8401,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -8428,10 +8428,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -8536,10 +8536,10 @@
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -8563,10 +8563,10 @@
         <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -8590,10 +8590,10 @@
         <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -8617,10 +8617,10 @@
         <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -8644,10 +8644,10 @@
         <v>0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
@@ -8671,10 +8671,10 @@
         <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG15" t="n">
         <v>0</v>
@@ -8752,10 +8752,10 @@
         <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP15" t="n">
         <v>0</v>
@@ -8779,10 +8779,10 @@
         <v>0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY15" t="n">
         <v>0</v>
@@ -8806,10 +8806,10 @@
         <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
@@ -8833,10 +8833,10 @@
         <v>0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
@@ -8860,10 +8860,10 @@
         <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
@@ -8970,52 +8970,52 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1784210056348982</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>-0</v>
+        <v>0.464006037743842</v>
       </c>
       <c r="C16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.213690755922597</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.06520053230485331</v>
+        <v>-0.05623636678274033</v>
       </c>
       <c r="F16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03307158169817349</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1544997131642331</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-0</v>
+        <v>0.3091686772893197</v>
       </c>
       <c r="L16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-0.2493368450749698</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09831883814102742</v>
+        <v>-0.0678724014983766</v>
       </c>
       <c r="O16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.005947782629136813</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9024,52 +9024,52 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.001658982967489801</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.09973576278518753</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-0</v>
+        <v>0.00436861355272419</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.04206952031555799</v>
+        <v>0.1397611844091128</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.04952680775557515</v>
+        <v>-0</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.02169913920323509</v>
+        <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>0.08363278850976616</v>
       </c>
       <c r="AD16" t="n">
         <v>-0</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0</v>
+        <v>0.03235867436458721</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.01619893498133563</v>
+        <v>-0.04178331435940076</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.03460908001711176</v>
+        <v>-0</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
@@ -9078,133 +9078,133 @@
         <v>-0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.03505939387739509</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>-0.01050531881593712</v>
       </c>
       <c r="AM16" t="n">
         <v>-0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>-0.06186637562024456</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.00849945966735929</v>
+        <v>-0.01192210134947837</v>
       </c>
       <c r="AP16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.008091195421753286</v>
+        <v>-0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.1046857783583853</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>-0</v>
+        <v>0.3966580425402422</v>
       </c>
       <c r="AV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW16" t="n">
-        <v>-0</v>
+        <v>0.06127107439789742</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.001432867308579419</v>
+        <v>0.1306370379137497</v>
       </c>
       <c r="AY16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.01726350819495866</v>
+        <v>0</v>
       </c>
       <c r="BA16" t="n">
         <v>-0</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.03888467533412062</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>0.05347188316916103</v>
       </c>
       <c r="BE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>0</v>
+        <v>-0.2043371808784797</v>
       </c>
       <c r="BG16" t="n">
-        <v>-0.02800024862092711</v>
+        <v>-0.1681918769594767</v>
       </c>
       <c r="BH16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.02268504232602198</v>
+        <v>0</v>
       </c>
       <c r="BJ16" t="n">
         <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL16" t="n">
-        <v>-0.02811295416243051</v>
+        <v>-0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>0.1016645978499683</v>
       </c>
       <c r="BN16" t="n">
         <v>0</v>
       </c>
       <c r="BO16" t="n">
-        <v>0</v>
+        <v>-0.0001228360759275198</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.05045082604120707</v>
+        <v>0.1742894553249103</v>
       </c>
       <c r="BQ16" t="n">
         <v>-0</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.01066417051940567</v>
+        <v>-0</v>
       </c>
       <c r="BS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT16" t="n">
         <v>-0</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.06853022337980351</v>
+        <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>0.1625996662776479</v>
       </c>
       <c r="BW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX16" t="n">
-        <v>0</v>
+        <v>0.03388422312014398</v>
       </c>
       <c r="BY16" t="n">
-        <v>-0.0152497370824343</v>
+        <v>0.111371108770046</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.009629424983472374</v>
+        <v>-0</v>
       </c>
       <c r="CB16" t="n">
         <v>-0</v>
@@ -9213,25 +9213,25 @@
         <v>-0</v>
       </c>
       <c r="CD16" t="n">
-        <v>-0.04651177530983507</v>
+        <v>-0</v>
       </c>
       <c r="CE16" t="n">
-        <v>0</v>
+        <v>-0.09082279854626153</v>
       </c>
       <c r="CF16" t="n">
         <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>-0</v>
+        <v>0.005380913520061375</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.02086313831147603</v>
+        <v>-0.01251183687505771</v>
       </c>
       <c r="CI16" t="n">
         <v>-0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>-0.01304693728512752</v>
+        <v>0</v>
       </c>
       <c r="CK16" t="n">
         <v>0</v>
@@ -9240,160 +9240,160 @@
         <v>-0</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0.006304890258252537</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>-0</v>
+        <v>-0.004471039862110992</v>
       </c>
       <c r="CO16" t="n">
         <v>-0</v>
       </c>
       <c r="CP16" t="n">
-        <v>-0</v>
+        <v>-0.1611631133197839</v>
       </c>
       <c r="CQ16" t="n">
-        <v>-0.01789086669446185</v>
+        <v>-0.07520678045576151</v>
       </c>
       <c r="CR16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS16" t="n">
-        <v>-0.02039768991798299</v>
+        <v>-0</v>
       </c>
       <c r="CT16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU16" t="n">
         <v>0</v>
       </c>
       <c r="CV16" t="n">
-        <v>-0.0421356262177249</v>
+        <v>0</v>
       </c>
       <c r="CW16" t="n">
-        <v>-0</v>
+        <v>-0.06708394399390694</v>
       </c>
       <c r="CX16" t="n">
         <v>-0</v>
       </c>
       <c r="CY16" t="n">
-        <v>0</v>
+        <v>0.03345121933472785</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.009030188654555484</v>
+        <v>-0.0207512881300389</v>
       </c>
       <c r="DA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB16" t="n">
-        <v>-0.006777641628900747</v>
+        <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD16" t="n">
         <v>0</v>
       </c>
       <c r="DE16" t="n">
-        <v>-0.003047519565163064</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0</v>
+        <v>-0.02276686092105686</v>
       </c>
       <c r="DG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>0.05207944114056191</v>
       </c>
       <c r="DI16" t="n">
-        <v>-0.005742900975722079</v>
+        <v>0.02337216052914406</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK16" t="n">
-        <v>-0.004555220366789198</v>
+        <v>-0</v>
       </c>
       <c r="DL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM16" t="n">
         <v>0</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.0120276432058872</v>
+        <v>-0</v>
       </c>
       <c r="DO16" t="n">
-        <v>0</v>
+        <v>-0.03742764311262105</v>
       </c>
       <c r="DP16" t="n">
         <v>0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0</v>
+        <v>0.006384190694356076</v>
       </c>
       <c r="DR16" t="n">
-        <v>-0.01921641109343616</v>
+        <v>-0.02685428571379275</v>
       </c>
       <c r="DS16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT16" t="n">
-        <v>0.03121211088245979</v>
+        <v>-0</v>
       </c>
       <c r="DU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV16" t="n">
         <v>0</v>
       </c>
       <c r="DW16" t="n">
-        <v>-0.008046726419983647</v>
+        <v>-0</v>
       </c>
       <c r="DX16" t="n">
-        <v>-0</v>
+        <v>-0.04277621502120528</v>
       </c>
       <c r="DY16" t="n">
         <v>0</v>
       </c>
       <c r="DZ16" t="n">
-        <v>-0</v>
+        <v>-0.03336448705702407</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.00938161868550976</v>
+        <v>-0.0598049975572133</v>
       </c>
       <c r="EB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC16" t="n">
-        <v>-0.001848878591903753</v>
+        <v>0</v>
       </c>
       <c r="ED16" t="n">
         <v>-0</v>
       </c>
       <c r="EE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF16" t="n">
-        <v>-0.07211373022156803</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>0</v>
+        <v>-0.0821178888512053</v>
       </c>
       <c r="EH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI16" t="n">
-        <v>-0</v>
+        <v>-0.006177931725444511</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.01065064599716633</v>
+        <v>0.07160918356618702</v>
       </c>
       <c r="EK16" t="n">
         <v>0</v>
       </c>
       <c r="EL16" t="n">
-        <v>-0.02306339918164659</v>
+        <v>-0</v>
       </c>
       <c r="EM16" t="n">
         <v>0</v>
@@ -9402,25 +9402,25 @@
         <v>-0</v>
       </c>
       <c r="EO16" t="n">
-        <v>-0.008390348435141094</v>
+        <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>0</v>
+        <v>-0.01779063133182174</v>
       </c>
       <c r="EQ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER16" t="n">
-        <v>0</v>
+        <v>0.02072505532524003</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.04883499000761108</v>
+        <v>0.01708695067292624</v>
       </c>
       <c r="ET16" t="n">
         <v>0</v>
       </c>
       <c r="EU16" t="n">
-        <v>0.006979358646062973</v>
+        <v>0</v>
       </c>
       <c r="EV16" t="n">
         <v>0</v>
@@ -9429,270 +9429,270 @@
         <v>-0</v>
       </c>
       <c r="EX16" t="n">
-        <v>-0.03971434295436068</v>
+        <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>0</v>
+        <v>-0.06403190689084767</v>
       </c>
       <c r="EZ16" t="n">
         <v>0</v>
       </c>
       <c r="FA16" t="n">
-        <v>-0</v>
+        <v>-0.004942794769620109</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.008337537287747009</v>
+        <v>-0.0005639592097789705</v>
       </c>
       <c r="FC16" t="n">
         <v>-0</v>
       </c>
       <c r="FD16" t="n">
-        <v>-0.007183141166969788</v>
+        <v>-0</v>
       </c>
       <c r="FE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.04917107270895053</v>
+        <v>0</v>
       </c>
       <c r="FH16" t="n">
-        <v>0</v>
+        <v>0.004321361019999555</v>
       </c>
       <c r="FI16" t="n">
         <v>-0</v>
       </c>
       <c r="FJ16" t="n">
-        <v>-0</v>
+        <v>0.01939565078559337</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.01520495356080839</v>
+        <v>-0.003135083571775055</v>
       </c>
       <c r="FL16" t="n">
         <v>-0</v>
       </c>
       <c r="FM16" t="n">
-        <v>0.008013593961329843</v>
+        <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.01503521103978125</v>
+        <v>0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0</v>
+        <v>-0.02165836749609637</v>
       </c>
       <c r="FR16" t="n">
         <v>0</v>
       </c>
       <c r="FS16" t="n">
-        <v>-0</v>
+        <v>0.05039422313082665</v>
       </c>
       <c r="FT16" t="n">
-        <v>-0.005511488760053605</v>
+        <v>-0.03165644400317966</v>
       </c>
       <c r="FU16" t="n">
         <v>-0</v>
       </c>
       <c r="FV16" t="n">
-        <v>0.005387850193888539</v>
+        <v>0</v>
       </c>
       <c r="FW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX16" t="n">
         <v>0</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.02371414994454041</v>
+        <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0</v>
+        <v>0.05240979100968161</v>
       </c>
       <c r="GA16" t="n">
         <v>-0</v>
       </c>
       <c r="GB16" t="n">
-        <v>0</v>
+        <v>-0.1042547420564951</v>
       </c>
       <c r="GC16" t="n">
         <v>-0</v>
       </c>
       <c r="GD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE16" t="n">
-        <v>0.01710915226668012</v>
+        <v>0</v>
       </c>
       <c r="GF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.235400290129776</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>-0</v>
+        <v>0.2236901653674261</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.08008218304716656</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02592523544399708</v>
+        <v>-0.05706061209626856</v>
       </c>
       <c r="F17" t="n">
-        <v>-0</v>
+        <v>-0.1617953627012015</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H17" t="n">
         <v>-0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2145828354515137</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.1894659379273365</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.09048269457434985</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.05511402568631742</v>
+        <v>-0.03440012274583153</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-0.1572062772066234</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q17" t="n">
         <v>-0</v>
       </c>
       <c r="R17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.005544048819565788</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-0</v>
+        <v>0.01877541559012363</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.02647924124475416</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.06187956361877045</v>
+        <v>-0.01920831889176585</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>0.009138828299600209</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.008665504586779964</v>
+        <v>-0</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0</v>
+        <v>-0.00848575968395603</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.006047382891962312</v>
+        <v>-0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.02192049954796503</v>
+        <v>0.02742348770272005</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0</v>
+        <v>0.002690648894797191</v>
       </c>
       <c r="AH17" t="n">
         <v>-0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ17" t="n">
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.03281809299415191</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>0.02408351570625542</v>
       </c>
       <c r="AM17" t="n">
-        <v>-0.01010972515901441</v>
+        <v>-0</v>
       </c>
       <c r="AN17" t="n">
         <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.02041791741840603</v>
+        <v>-0.005351731095185492</v>
       </c>
       <c r="AP17" t="n">
-        <v>-0</v>
+        <v>-0.02687203259610787</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS17" t="n">
         <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.1076820518720215</v>
+        <v>-0</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>0.1507701256935356</v>
       </c>
       <c r="AV17" t="n">
-        <v>-0.03894500496677717</v>
+        <v>-0</v>
       </c>
       <c r="AW17" t="n">
         <v>0</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.002038248317895732</v>
+        <v>-0.02255599841015753</v>
       </c>
       <c r="AY17" t="n">
-        <v>0</v>
+        <v>-0.05540035372147048</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA17" t="n">
         <v>-0</v>
@@ -9701,22 +9701,22 @@
         <v>0</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.048914906667904</v>
+        <v>0</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>0.05177891918719758</v>
       </c>
       <c r="BE17" t="n">
-        <v>-0.03175571207389664</v>
+        <v>0</v>
       </c>
       <c r="BF17" t="n">
         <v>0</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.03085111836193086</v>
+        <v>-0.0591959157212214</v>
       </c>
       <c r="BH17" t="n">
-        <v>-0</v>
+        <v>-0.07844582386224749</v>
       </c>
       <c r="BI17" t="n">
         <v>0</v>
@@ -9728,25 +9728,25 @@
         <v>-0</v>
       </c>
       <c r="BL17" t="n">
-        <v>-0.01930058425816838</v>
+        <v>-0</v>
       </c>
       <c r="BM17" t="n">
-        <v>0</v>
+        <v>0.05058529276217728</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.02874564082817313</v>
+        <v>0</v>
       </c>
       <c r="BO17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.06989042645554124</v>
+        <v>0.01499947708081137</v>
       </c>
       <c r="BQ17" t="n">
-        <v>-0</v>
+        <v>0.01835980282120872</v>
       </c>
       <c r="BR17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS17" t="n">
         <v>0</v>
@@ -9755,22 +9755,22 @@
         <v>-0</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.08868663453374845</v>
+        <v>-0</v>
       </c>
       <c r="BV17" t="n">
-        <v>0</v>
+        <v>0.07648627615069933</v>
       </c>
       <c r="BW17" t="n">
-        <v>-0.0198113702934941</v>
+        <v>0</v>
       </c>
       <c r="BX17" t="n">
         <v>0</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.01486687550090961</v>
+        <v>-0.02136754829659425</v>
       </c>
       <c r="BZ17" t="n">
-        <v>-0</v>
+        <v>-0.03302888841011239</v>
       </c>
       <c r="CA17" t="n">
         <v>-0</v>
@@ -9779,79 +9779,79 @@
         <v>-0</v>
       </c>
       <c r="CC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD17" t="n">
-        <v>-0.05462028764620704</v>
+        <v>-0</v>
       </c>
       <c r="CE17" t="n">
-        <v>0</v>
+        <v>-0.03589458903815913</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.02108780022928548</v>
+        <v>0</v>
       </c>
       <c r="CG17" t="n">
         <v>-0</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.003434847939775773</v>
+        <v>-0.002269519853894627</v>
       </c>
       <c r="CI17" t="n">
-        <v>0</v>
+        <v>0.03804311726017649</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK17" t="n">
         <v>0</v>
       </c>
       <c r="CL17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM17" t="n">
-        <v>-0.009926850221773174</v>
+        <v>0</v>
       </c>
       <c r="CN17" t="n">
-        <v>-0</v>
+        <v>-0.0008833799638143314</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.001649755744378045</v>
+        <v>-0</v>
       </c>
       <c r="CP17" t="n">
         <v>0</v>
       </c>
       <c r="CQ17" t="n">
-        <v>-0.04131486899280734</v>
+        <v>0.0005760952829363495</v>
       </c>
       <c r="CR17" t="n">
-        <v>-0</v>
+        <v>-0.0282599015719155</v>
       </c>
       <c r="CS17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT17" t="n">
         <v>-0</v>
       </c>
       <c r="CU17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV17" t="n">
-        <v>-0.05041671635156645</v>
+        <v>-0</v>
       </c>
       <c r="CW17" t="n">
-        <v>-0</v>
+        <v>-0.02875121916033409</v>
       </c>
       <c r="CX17" t="n">
-        <v>0.02221383065689658</v>
+        <v>-0</v>
       </c>
       <c r="CY17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>-0.01195303040436346</v>
+        <v>-0.0007255696105070718</v>
       </c>
       <c r="DA17" t="n">
-        <v>-0</v>
+        <v>0.03768351293579356</v>
       </c>
       <c r="DB17" t="n">
         <v>0</v>
@@ -9863,22 +9863,22 @@
         <v>-0</v>
       </c>
       <c r="DE17" t="n">
-        <v>-0.006732411228615088</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>0</v>
+        <v>-0.01453064425495513</v>
       </c>
       <c r="DG17" t="n">
-        <v>0.02080606524648715</v>
+        <v>0</v>
       </c>
       <c r="DH17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.0245192160502524</v>
+        <v>0.02416277996837621</v>
       </c>
       <c r="DJ17" t="n">
-        <v>-0</v>
+        <v>0.005194844261149644</v>
       </c>
       <c r="DK17" t="n">
         <v>0</v>
@@ -9887,55 +9887,55 @@
         <v>0</v>
       </c>
       <c r="DM17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN17" t="n">
-        <v>0.004276625241015306</v>
+        <v>-0</v>
       </c>
       <c r="DO17" t="n">
-        <v>0</v>
+        <v>-0.006998714500046086</v>
       </c>
       <c r="DP17" t="n">
-        <v>0.003322837291752422</v>
+        <v>0</v>
       </c>
       <c r="DQ17" t="n">
         <v>-0</v>
       </c>
       <c r="DR17" t="n">
-        <v>0.01442703461970497</v>
+        <v>0.01749878985250384</v>
       </c>
       <c r="DS17" t="n">
-        <v>-0</v>
+        <v>-0.007969609502787918</v>
       </c>
       <c r="DT17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU17" t="n">
         <v>0</v>
       </c>
       <c r="DV17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW17" t="n">
-        <v>-0.008500806211337468</v>
+        <v>-0</v>
       </c>
       <c r="DX17" t="n">
-        <v>-0</v>
+        <v>-0.03712041572962683</v>
       </c>
       <c r="DY17" t="n">
-        <v>-0.00875498277718316</v>
+        <v>0</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA17" t="n">
-        <v>-0.001666119601671557</v>
+        <v>0.01241889268291696</v>
       </c>
       <c r="EB17" t="n">
-        <v>-0</v>
+        <v>0.01743653030606074</v>
       </c>
       <c r="EC17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED17" t="n">
         <v>-0</v>
@@ -9944,49 +9944,49 @@
         <v>0</v>
       </c>
       <c r="EF17" t="n">
-        <v>-0.08084453592938778</v>
+        <v>0</v>
       </c>
       <c r="EG17" t="n">
-        <v>0</v>
+        <v>-0.0396685130155616</v>
       </c>
       <c r="EH17" t="n">
-        <v>0.02285254096912752</v>
+        <v>0</v>
       </c>
       <c r="EI17" t="n">
         <v>-0</v>
       </c>
       <c r="EJ17" t="n">
-        <v>-0.002786562400647052</v>
+        <v>0.008875487575524388</v>
       </c>
       <c r="EK17" t="n">
-        <v>0</v>
+        <v>0.03571096574975172</v>
       </c>
       <c r="EL17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO17" t="n">
-        <v>-0.02323464024639659</v>
+        <v>0</v>
       </c>
       <c r="EP17" t="n">
-        <v>0</v>
+        <v>-0.01226075680706109</v>
       </c>
       <c r="EQ17" t="n">
-        <v>0.02563577965606521</v>
+        <v>0</v>
       </c>
       <c r="ER17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.006186530360788433</v>
+        <v>-0.009776754541435605</v>
       </c>
       <c r="ET17" t="n">
-        <v>-0</v>
+        <v>0.02035008030565537</v>
       </c>
       <c r="EU17" t="n">
         <v>-0</v>
@@ -9995,25 +9995,25 @@
         <v>0</v>
       </c>
       <c r="EW17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX17" t="n">
-        <v>-0.04938830682350132</v>
+        <v>0</v>
       </c>
       <c r="EY17" t="n">
-        <v>0</v>
+        <v>-0.02847507285626069</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0.02080647559515589</v>
+        <v>0</v>
       </c>
       <c r="FA17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB17" t="n">
-        <v>-0.006965415207236385</v>
+        <v>0.001882318909216545</v>
       </c>
       <c r="FC17" t="n">
-        <v>0</v>
+        <v>0.03905761169621512</v>
       </c>
       <c r="FD17" t="n">
         <v>-0</v>
@@ -10025,79 +10025,79 @@
         <v>0</v>
       </c>
       <c r="FG17" t="n">
-        <v>0.04201094239337985</v>
+        <v>0</v>
       </c>
       <c r="FH17" t="n">
-        <v>-0</v>
+        <v>-0.01241297234233389</v>
       </c>
       <c r="FI17" t="n">
-        <v>0.01825275169000449</v>
+        <v>-0</v>
       </c>
       <c r="FJ17" t="n">
         <v>-0</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.02719618082721167</v>
+        <v>0.001274956631300459</v>
       </c>
       <c r="FL17" t="n">
-        <v>0</v>
+        <v>0.02248705960427439</v>
       </c>
       <c r="FM17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP17" t="n">
-        <v>0.01043783643189194</v>
+        <v>0</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0</v>
+        <v>0.009821790994192531</v>
       </c>
       <c r="FR17" t="n">
-        <v>0.008725092881278802</v>
+        <v>-0</v>
       </c>
       <c r="FS17" t="n">
         <v>-0</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.01188185664384299</v>
+        <v>-0.02405241553919783</v>
       </c>
       <c r="FU17" t="n">
-        <v>0</v>
+        <v>0.02105405408501342</v>
       </c>
       <c r="FV17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY17" t="n">
-        <v>0.02266676756990979</v>
+        <v>-0</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0</v>
+        <v>0.0116913527863489</v>
       </c>
       <c r="GA17" t="n">
-        <v>-0.01419771284882286</v>
+        <v>-0</v>
       </c>
       <c r="GB17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC17" t="n">
         <v>0</v>
       </c>
       <c r="GD17" t="n">
-        <v>-0</v>
+        <v>-0.02008225222196747</v>
       </c>
       <c r="GE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF17" t="n">
         <v>-0</v>
@@ -10108,52 +10108,52 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1816715566595185</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>-0</v>
+        <v>0.4782714593545428</v>
       </c>
       <c r="C18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-0.1894115948988301</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.04627048822583118</v>
+        <v>-0.09490629691274956</v>
       </c>
       <c r="F18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03266941034141311</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1697109317412727</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>-0</v>
+        <v>0.3054795686575793</v>
       </c>
       <c r="L18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>-0.2197097344254202</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07990443120951843</v>
+        <v>-0.09949893958016359</v>
       </c>
       <c r="O18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.004768743829926342</v>
+        <v>-0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -10162,52 +10162,52 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01003013913245553</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.1077960096535445</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>-0.006828486107908502</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.05511061621122799</v>
+        <v>0.09388041128651994</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.04834093946431981</v>
+        <v>-0</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.01130636490176888</v>
+        <v>-0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>0.05856527514848074</v>
       </c>
       <c r="AD18" t="n">
         <v>-0</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0</v>
+        <v>-0.01073816182508737</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.0214590694461169</v>
+        <v>-0.01830959913707527</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.03628459333426341</v>
+        <v>-0</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
@@ -10216,106 +10216,106 @@
         <v>-0</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.03197024312556878</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>0.01287809739128203</v>
       </c>
       <c r="AM18" t="n">
         <v>-0</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>-0.0589707505191921</v>
       </c>
       <c r="AO18" t="n">
-        <v>-0.0103944690456291</v>
+        <v>-0.05266308354040482</v>
       </c>
       <c r="AP18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.007617950434197732</v>
+        <v>-0</v>
       </c>
       <c r="AR18" t="n">
         <v>-0</v>
       </c>
       <c r="AS18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.08409194735719827</v>
+        <v>0</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>0.3955811274091116</v>
       </c>
       <c r="AV18" t="n">
         <v>-0</v>
       </c>
       <c r="AW18" t="n">
-        <v>-0</v>
+        <v>0.03227531954540133</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.01263393975959331</v>
+        <v>0.08510792053750782</v>
       </c>
       <c r="AY18" t="n">
         <v>-0</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.02049516850408977</v>
+        <v>0</v>
       </c>
       <c r="BA18" t="n">
         <v>-0</v>
       </c>
       <c r="BB18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.03750801863520514</v>
+        <v>0</v>
       </c>
       <c r="BD18" t="n">
-        <v>0</v>
+        <v>0.02417466746100158</v>
       </c>
       <c r="BE18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF18" t="n">
-        <v>0</v>
+        <v>-0.1882588326087855</v>
       </c>
       <c r="BG18" t="n">
-        <v>-0.02011843049381214</v>
+        <v>-0.1222923605297916</v>
       </c>
       <c r="BH18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.01997637747210413</v>
+        <v>0</v>
       </c>
       <c r="BJ18" t="n">
         <v>0</v>
       </c>
       <c r="BK18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL18" t="n">
-        <v>-0.02061194052307772</v>
+        <v>-0</v>
       </c>
       <c r="BM18" t="n">
-        <v>0</v>
+        <v>0.1533617734419133</v>
       </c>
       <c r="BN18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO18" t="n">
-        <v>0</v>
+        <v>0.04130492429331169</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.04059989568975873</v>
+        <v>0.1641448300559005</v>
       </c>
       <c r="BQ18" t="n">
         <v>-0</v>
       </c>
       <c r="BR18" t="n">
-        <v>0.00831344383146327</v>
+        <v>0</v>
       </c>
       <c r="BS18" t="n">
         <v>-0</v>
@@ -10324,52 +10324,52 @@
         <v>-0</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.06151635143393025</v>
+        <v>0</v>
       </c>
       <c r="BV18" t="n">
-        <v>0</v>
+        <v>0.1844227469771434</v>
       </c>
       <c r="BW18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX18" t="n">
-        <v>0</v>
+        <v>0.01822151604457413</v>
       </c>
       <c r="BY18" t="n">
-        <v>-0.007408590376280658</v>
+        <v>0.05605173382089629</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA18" t="n">
-        <v>0.01062680615511728</v>
+        <v>-0</v>
       </c>
       <c r="CB18" t="n">
         <v>-0</v>
       </c>
       <c r="CC18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD18" t="n">
-        <v>-0.03997765909860648</v>
+        <v>0</v>
       </c>
       <c r="CE18" t="n">
-        <v>0</v>
+        <v>-0.07923880815693203</v>
       </c>
       <c r="CF18" t="n">
         <v>0</v>
       </c>
       <c r="CG18" t="n">
-        <v>-0</v>
+        <v>0.004831706402358455</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.01062190556943805</v>
+        <v>-0.004544984842683445</v>
       </c>
       <c r="CI18" t="n">
         <v>-0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>-0.01167824542491564</v>
+        <v>0</v>
       </c>
       <c r="CK18" t="n">
         <v>0</v>
@@ -10378,52 +10378,52 @@
         <v>-0</v>
       </c>
       <c r="CM18" t="n">
-        <v>-0.00668942751739626</v>
+        <v>0</v>
       </c>
       <c r="CN18" t="n">
-        <v>-0</v>
+        <v>-0.01574379932668527</v>
       </c>
       <c r="CO18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP18" t="n">
-        <v>-0</v>
+        <v>-0.08951030982185573</v>
       </c>
       <c r="CQ18" t="n">
-        <v>-0.02785018798550701</v>
+        <v>-0.08893722397694123</v>
       </c>
       <c r="CR18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS18" t="n">
-        <v>-0.0195141552413334</v>
+        <v>-0</v>
       </c>
       <c r="CT18" t="n">
         <v>-0</v>
       </c>
       <c r="CU18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV18" t="n">
-        <v>-0.03737908784662018</v>
+        <v>0</v>
       </c>
       <c r="CW18" t="n">
-        <v>-0</v>
+        <v>-0.05251758135050987</v>
       </c>
       <c r="CX18" t="n">
         <v>-0</v>
       </c>
       <c r="CY18" t="n">
-        <v>0</v>
+        <v>0.03457433797983273</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.002363375064323163</v>
+        <v>-0.01279026147411001</v>
       </c>
       <c r="DA18" t="n">
         <v>0</v>
       </c>
       <c r="DB18" t="n">
-        <v>-0.006396003495124935</v>
+        <v>0</v>
       </c>
       <c r="DC18" t="n">
         <v>-0</v>
@@ -10432,133 +10432,133 @@
         <v>0</v>
       </c>
       <c r="DE18" t="n">
-        <v>-0.004578813468642016</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>0</v>
+        <v>-0.04505374610212851</v>
       </c>
       <c r="DG18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH18" t="n">
-        <v>0</v>
+        <v>0.03943452991075673</v>
       </c>
       <c r="DI18" t="n">
-        <v>-0.002344420726153872</v>
+        <v>0.03326546437488605</v>
       </c>
       <c r="DJ18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK18" t="n">
-        <v>-0.004777900436402865</v>
+        <v>-0</v>
       </c>
       <c r="DL18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM18" t="n">
         <v>0</v>
       </c>
       <c r="DN18" t="n">
-        <v>0.01279751557900185</v>
+        <v>-0</v>
       </c>
       <c r="DO18" t="n">
-        <v>0</v>
+        <v>-0.04342295432720455</v>
       </c>
       <c r="DP18" t="n">
         <v>0</v>
       </c>
       <c r="DQ18" t="n">
-        <v>-0</v>
+        <v>0.01135203416512043</v>
       </c>
       <c r="DR18" t="n">
-        <v>-0.02638966302768973</v>
+        <v>-0.03556450625359007</v>
       </c>
       <c r="DS18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT18" t="n">
-        <v>0.02792060766984249</v>
+        <v>-0</v>
       </c>
       <c r="DU18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV18" t="n">
         <v>0</v>
       </c>
       <c r="DW18" t="n">
-        <v>-0.001011913245764728</v>
+        <v>-0</v>
       </c>
       <c r="DX18" t="n">
-        <v>-0</v>
+        <v>-0.09779877077169984</v>
       </c>
       <c r="DY18" t="n">
         <v>0</v>
       </c>
       <c r="DZ18" t="n">
-        <v>-0</v>
+        <v>-0.01483689547975089</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.004139996632983252</v>
+        <v>0.04032926498103225</v>
       </c>
       <c r="EB18" t="n">
         <v>-0</v>
       </c>
       <c r="EC18" t="n">
-        <v>-0.000965893227997999</v>
+        <v>-0</v>
       </c>
       <c r="ED18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF18" t="n">
-        <v>-0.06469033308854374</v>
+        <v>0</v>
       </c>
       <c r="EG18" t="n">
-        <v>0</v>
+        <v>-0.06771867336228811</v>
       </c>
       <c r="EH18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI18" t="n">
-        <v>-0</v>
+        <v>0.015212052951692</v>
       </c>
       <c r="EJ18" t="n">
-        <v>0.004160174452262164</v>
+        <v>0.05665713826190658</v>
       </c>
       <c r="EK18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL18" t="n">
-        <v>-0.02184462373791474</v>
+        <v>-0</v>
       </c>
       <c r="EM18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN18" t="n">
         <v>-0</v>
       </c>
       <c r="EO18" t="n">
-        <v>-0.0165572617393733</v>
+        <v>0</v>
       </c>
       <c r="EP18" t="n">
-        <v>0</v>
+        <v>-0.0002038601761399163</v>
       </c>
       <c r="EQ18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER18" t="n">
-        <v>0</v>
+        <v>0.0002849429368399326</v>
       </c>
       <c r="ES18" t="n">
-        <v>0.04790824362261144</v>
+        <v>0.03778278063671914</v>
       </c>
       <c r="ET18" t="n">
         <v>0</v>
       </c>
       <c r="EU18" t="n">
-        <v>0.006296444044288574</v>
+        <v>-0</v>
       </c>
       <c r="EV18" t="n">
         <v>0</v>
@@ -10567,112 +10567,112 @@
         <v>-0</v>
       </c>
       <c r="EX18" t="n">
-        <v>-0.03473404010241432</v>
+        <v>0</v>
       </c>
       <c r="EY18" t="n">
-        <v>0</v>
+        <v>-0.05089368823424342</v>
       </c>
       <c r="EZ18" t="n">
         <v>0</v>
       </c>
       <c r="FA18" t="n">
-        <v>0</v>
+        <v>0.001197502785281838</v>
       </c>
       <c r="FB18" t="n">
-        <v>0.002065122451343189</v>
+        <v>0.01542012996633939</v>
       </c>
       <c r="FC18" t="n">
         <v>-0</v>
       </c>
       <c r="FD18" t="n">
-        <v>-0.006671737231826647</v>
+        <v>-0</v>
       </c>
       <c r="FE18" t="n">
         <v>0</v>
       </c>
       <c r="FF18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG18" t="n">
-        <v>0.03875748969305084</v>
+        <v>0</v>
       </c>
       <c r="FH18" t="n">
-        <v>0</v>
+        <v>-0.06070096715971212</v>
       </c>
       <c r="FI18" t="n">
         <v>-0</v>
       </c>
       <c r="FJ18" t="n">
-        <v>-0</v>
+        <v>0.004776559500658016</v>
       </c>
       <c r="FK18" t="n">
-        <v>0.02130286620576446</v>
+        <v>0.04627201818263581</v>
       </c>
       <c r="FL18" t="n">
         <v>-0</v>
       </c>
       <c r="FM18" t="n">
-        <v>0.006581048922181511</v>
+        <v>0</v>
       </c>
       <c r="FN18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP18" t="n">
-        <v>0.007986954052876622</v>
+        <v>0</v>
       </c>
       <c r="FQ18" t="n">
-        <v>0</v>
+        <v>-0.04319925203532338</v>
       </c>
       <c r="FR18" t="n">
         <v>0</v>
       </c>
       <c r="FS18" t="n">
-        <v>-0</v>
+        <v>0.02396726819214683</v>
       </c>
       <c r="FT18" t="n">
-        <v>0.005529290139135406</v>
+        <v>-0.0518789332825917</v>
       </c>
       <c r="FU18" t="n">
         <v>-0</v>
       </c>
       <c r="FV18" t="n">
-        <v>0.00422307215610321</v>
+        <v>-0</v>
       </c>
       <c r="FW18" t="n">
         <v>0</v>
       </c>
       <c r="FX18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY18" t="n">
-        <v>0.02961878700110047</v>
+        <v>-0</v>
       </c>
       <c r="FZ18" t="n">
-        <v>0</v>
+        <v>0.05615709330700719</v>
       </c>
       <c r="GA18" t="n">
         <v>-0</v>
       </c>
       <c r="GB18" t="n">
-        <v>0</v>
+        <v>-0.1078446001861136</v>
       </c>
       <c r="GC18" t="n">
         <v>-0</v>
       </c>
       <c r="GD18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE18" t="n">
-        <v>0.01656356721819481</v>
+        <v>0</v>
       </c>
       <c r="GF18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
